--- a/Problem1/data_top100.xlsx
+++ b/Problem1/data_top100.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cf-projects\01-科研\2021研究生数学建模\02-working\MathModel2021\Problem1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEDEEA5-69A1-4A65-B51B-84513CC71BCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09A9C8B-10FD-4BBB-9A6E-43F31386384E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1080,7 +1080,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,6 +1092,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1100,13 +1101,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1150,15 +1144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1464,7 +1455,7 @@
   <dimension ref="A1:MN2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1465,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:352" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C1" s="1" t="s">
